--- a/src/output/callacalla/4/cargas_trabajo.xlsx
+++ b/src/output/callacalla/4/cargas_trabajo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>N.º</t>
   </si>
@@ -79,6 +79,18 @@
     <t>m3</t>
   </si>
   <si>
+    <t>MR200</t>
+  </si>
+  <si>
+    <t>Limpieza de obras de arte</t>
+  </si>
+  <si>
+    <t>MR203</t>
+  </si>
+  <si>
+    <t>Limpieza de badén</t>
+  </si>
+  <si>
     <t>MR300</t>
   </si>
   <si>
@@ -89,6 +101,21 @@
   </si>
   <si>
     <t>Roce y limpieza</t>
+  </si>
+  <si>
+    <t>MR400</t>
+  </si>
+  <si>
+    <t>Seguridad vial</t>
+  </si>
+  <si>
+    <t>MR401</t>
+  </si>
+  <si>
+    <t>Conservación de señales</t>
+  </si>
+  <si>
+    <t>unidad</t>
   </si>
 </sst>
 </file>
@@ -491,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:I14"/>
+  <dimension ref="B7:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,10 +596,10 @@
         <v>0.6625</v>
       </c>
       <c r="G10" s="5">
-        <v>1.2</v>
+        <v>0.66</v>
       </c>
       <c r="H10" s="6">
-        <v>1.81</v>
+        <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>14</v>
@@ -595,10 +622,10 @@
         <v>153.0684615384615</v>
       </c>
       <c r="G11" s="5">
-        <v>400</v>
+        <v>153.07</v>
       </c>
       <c r="H11" s="6">
-        <v>2.61</v>
+        <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>14</v>
@@ -621,10 +648,10 @@
         <v>5.085714285714285</v>
       </c>
       <c r="G12" s="5">
-        <v>9</v>
+        <v>5.09</v>
       </c>
       <c r="H12" s="6">
-        <v>1.77</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>14</v>
@@ -650,18 +677,88 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14" s="5">
+        <v>22.224</v>
+      </c>
+      <c r="G14" s="5">
+        <v>22.22</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5">
         <v>1951.915</v>
       </c>
-      <c r="G14" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H14" s="6">
-        <v>3.07</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="G16" s="5">
+        <v>1951.52</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="4">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5.323333333333333</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -675,7 +772,7 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7:I14">
+  <conditionalFormatting sqref="B7:I18">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(B7))</formula>
     </cfRule>
